--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1,801.70</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2,165.91</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,180.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2,527.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2,460.73</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2,527.11</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,180.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2,165.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1,801.70</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>2527.11</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>1801.7</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2227.13</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>114.53</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120.49</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>166.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>174.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>204.29</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>174.86</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>166.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>120.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>114.53</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>204.29</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>114.53</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>156.196</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1,916.23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2,286.40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,347.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2,701.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2,665.02</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2,701.97</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2,347.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,286.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1,916.23</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2701.97</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1916.23</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2383.326</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>164.67</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>201.79</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>212.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>252.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>264.37</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>252.52</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>212.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>201.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>164.67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>264.37</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>164.67</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>219.268</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>19.71</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17.72</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>17.14</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>17.66</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>466.80</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>548.45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>552.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>628.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>715.46</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>628.64</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>552.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>548.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>466.80</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>715.46</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>466.8</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>582.426</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,267.62</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,520.18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,563.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,803.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,665.48</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,803.09</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,563.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,520.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,267.62</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1803.09</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1267.62</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1563.972</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>7.91</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>27.11</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>27.20</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>19.17</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,294.82</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,534.84</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,582.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,830.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,673.39</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,830.20</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,582.46</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,534.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,294.82</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1830.2</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1294.82</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1583.142</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>805.83</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>883.31</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>956.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>980.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>983.69</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>980.20</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>956.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>883.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>805.83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>983.6900000000001</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>805.83</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>921.8380000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>488.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>651.53</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>626.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>850.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>689.70</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>850.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>626.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>651.53</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>488.99</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>488.99</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>661.304</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>488.99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>651.53</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>626.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>850.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>689.70</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>850.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>626.30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>651.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>488.99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>488.99</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>661.304</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>173.95</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>227.54</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>218.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>294.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>240.55</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>294.35</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>218.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>227.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>173.95</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>294.35</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>173.95</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>230.986</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>315.04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>423.99</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>407.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>555.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>449.15</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>555.65</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>407.76</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>423.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>315.04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>555.65</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>315.04</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>430.318</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>315.04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>423.99</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>407.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>555.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>449.15</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>555.65</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>407.76</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>423.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>315.04</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>555.65</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>315.04</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>430.318</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>107.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>109.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>109.98</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>109.59</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>107.74</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>53.87</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>53.87</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="20"/>
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>8.22</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10.27</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.14</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>79.14</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>22.224</v>
       </c>
     </row>
     <row r="23">
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>8.13</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>77.84</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>21.876</v>
       </c>
     </row>
     <row r="24"/>
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>8.22</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>10.27</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.14</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>79.14</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>22.224</v>
       </c>
     </row>
     <row r="27">
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>8.13</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>77.84</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>21.876</v>
       </c>
     </row>
     <row r="28"/>
